--- a/next_semester_gpa_prediction/data/final_dataset_distributions.xlsx
+++ b/next_semester_gpa_prediction/data/final_dataset_distributions.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitzgeralaus\Downloads\Server\next_semester_gpa_prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C5E11A7-005F-46D7-8C01-F4785BC4D89F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0B5EB-D9C5-4849-9FB2-CDF80C7FB395}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4416BB7E-8EA6-4F93-9173-71EB699AD9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -282,143 +285,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>[750,770]</c:v>
+                  <c:v>[1,2]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[770,780]</c:v>
+                  <c:v>[2,3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[780,800]</c:v>
+                  <c:v>[3,4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[800,810]</c:v>
+                  <c:v>[4,5]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[810,830]</c:v>
+                  <c:v>[5,6]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[830,840]</c:v>
+                  <c:v>[6,7]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[840,860]</c:v>
+                  <c:v>[7,8]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[860,870]</c:v>
+                  <c:v>[8,9]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[870,890]</c:v>
+                  <c:v>[9,10]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[890,900]</c:v>
+                  <c:v>[10,11]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[900,920]</c:v>
+                  <c:v>[11,12]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[920,930]</c:v>
+                  <c:v>[12,13]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[930,950]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>[950,960]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>[960,980]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>[980,990]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>[990,1010]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>[1010,1020]</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>[1020,1040]</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>[1040,1050]</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>[1050,1070]</c:v>
+                  <c:v>[13,14]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,15 +1192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1271,6 +1226,4516 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="final_student_random_gpa_pair"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>prev term number</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>next term number</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>5</v>
+          </cell>
+          <cell r="C2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>9</v>
+          </cell>
+          <cell r="C3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+          <cell r="C6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="C7">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>4</v>
+          </cell>
+          <cell r="C10">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>6</v>
+          </cell>
+          <cell r="C11">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>9</v>
+          </cell>
+          <cell r="C12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>1</v>
+          </cell>
+          <cell r="C14">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>2</v>
+          </cell>
+          <cell r="C15">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>6</v>
+          </cell>
+          <cell r="C16">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>6</v>
+          </cell>
+          <cell r="C17">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>3</v>
+          </cell>
+          <cell r="C18">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>5</v>
+          </cell>
+          <cell r="C19">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>7</v>
+          </cell>
+          <cell r="C20">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+          <cell r="C21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>5</v>
+          </cell>
+          <cell r="C22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+          <cell r="C23">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>5</v>
+          </cell>
+          <cell r="C24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>4</v>
+          </cell>
+          <cell r="C25">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>7</v>
+          </cell>
+          <cell r="C26">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>1</v>
+          </cell>
+          <cell r="C27">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>2</v>
+          </cell>
+          <cell r="C29">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+          <cell r="C30">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>6</v>
+          </cell>
+          <cell r="C31">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1</v>
+          </cell>
+          <cell r="C32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>5</v>
+          </cell>
+          <cell r="C33">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>2</v>
+          </cell>
+          <cell r="C34">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+          <cell r="C35">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2</v>
+          </cell>
+          <cell r="C36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>6</v>
+          </cell>
+          <cell r="C37">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>2</v>
+          </cell>
+          <cell r="C38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>5</v>
+          </cell>
+          <cell r="C39">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>3</v>
+          </cell>
+          <cell r="C40">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>2</v>
+          </cell>
+          <cell r="C41">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>7</v>
+          </cell>
+          <cell r="C42">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>5</v>
+          </cell>
+          <cell r="C43">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>5</v>
+          </cell>
+          <cell r="C44">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>1</v>
+          </cell>
+          <cell r="C45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>3</v>
+          </cell>
+          <cell r="C46">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>3</v>
+          </cell>
+          <cell r="C47">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>5</v>
+          </cell>
+          <cell r="C48">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>7</v>
+          </cell>
+          <cell r="C49">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>5</v>
+          </cell>
+          <cell r="C50">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>5</v>
+          </cell>
+          <cell r="C51">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>3</v>
+          </cell>
+          <cell r="C52">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+          <cell r="C53">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>6</v>
+          </cell>
+          <cell r="C54">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>6</v>
+          </cell>
+          <cell r="C55">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>2</v>
+          </cell>
+          <cell r="C56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>3</v>
+          </cell>
+          <cell r="C57">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+          <cell r="C58">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>7</v>
+          </cell>
+          <cell r="C59">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+          <cell r="C60">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>5</v>
+          </cell>
+          <cell r="C61">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>3</v>
+          </cell>
+          <cell r="C62">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>6</v>
+          </cell>
+          <cell r="C63">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>1</v>
+          </cell>
+          <cell r="C64">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>6</v>
+          </cell>
+          <cell r="C65">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>7</v>
+          </cell>
+          <cell r="C66">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>9</v>
+          </cell>
+          <cell r="C67">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>4</v>
+          </cell>
+          <cell r="C68">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>4</v>
+          </cell>
+          <cell r="C69">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>3</v>
+          </cell>
+          <cell r="C70">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>2</v>
+          </cell>
+          <cell r="C71">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>4</v>
+          </cell>
+          <cell r="C72">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>4</v>
+          </cell>
+          <cell r="C73">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>6</v>
+          </cell>
+          <cell r="C74">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>3</v>
+          </cell>
+          <cell r="C75">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>5</v>
+          </cell>
+          <cell r="C76">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>5</v>
+          </cell>
+          <cell r="C77">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>1</v>
+          </cell>
+          <cell r="C78">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>8</v>
+          </cell>
+          <cell r="C79">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>2</v>
+          </cell>
+          <cell r="C80">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>2</v>
+          </cell>
+          <cell r="C81">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>3</v>
+          </cell>
+          <cell r="C82">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>2</v>
+          </cell>
+          <cell r="C83">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>1</v>
+          </cell>
+          <cell r="C84">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>9</v>
+          </cell>
+          <cell r="C85">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>1</v>
+          </cell>
+          <cell r="C86">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>3</v>
+          </cell>
+          <cell r="C87">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>1</v>
+          </cell>
+          <cell r="C88">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>3</v>
+          </cell>
+          <cell r="C89">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>3</v>
+          </cell>
+          <cell r="C90">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>5</v>
+          </cell>
+          <cell r="C91">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>7</v>
+          </cell>
+          <cell r="C92">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>2</v>
+          </cell>
+          <cell r="C93">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>1</v>
+          </cell>
+          <cell r="C94">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>2</v>
+          </cell>
+          <cell r="C95">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>9</v>
+          </cell>
+          <cell r="C96">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>3</v>
+          </cell>
+          <cell r="C97">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>7</v>
+          </cell>
+          <cell r="C98">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>7</v>
+          </cell>
+          <cell r="C99">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>2</v>
+          </cell>
+          <cell r="C100">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>9</v>
+          </cell>
+          <cell r="C101">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>5</v>
+          </cell>
+          <cell r="C102">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>3</v>
+          </cell>
+          <cell r="C103">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>5</v>
+          </cell>
+          <cell r="C104">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>6</v>
+          </cell>
+          <cell r="C105">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>6</v>
+          </cell>
+          <cell r="C106">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>4</v>
+          </cell>
+          <cell r="C107">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>1</v>
+          </cell>
+          <cell r="C108">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>1</v>
+          </cell>
+          <cell r="C109">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>6</v>
+          </cell>
+          <cell r="C110">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2</v>
+          </cell>
+          <cell r="C111">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>6</v>
+          </cell>
+          <cell r="C112">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>3</v>
+          </cell>
+          <cell r="C113">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>3</v>
+          </cell>
+          <cell r="C114">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>1</v>
+          </cell>
+          <cell r="C115">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>10</v>
+          </cell>
+          <cell r="C116">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>7</v>
+          </cell>
+          <cell r="C117">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>3</v>
+          </cell>
+          <cell r="C118">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>6</v>
+          </cell>
+          <cell r="C119">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>3</v>
+          </cell>
+          <cell r="C120">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>5</v>
+          </cell>
+          <cell r="C121">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>2</v>
+          </cell>
+          <cell r="C122">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>1</v>
+          </cell>
+          <cell r="C123">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>1</v>
+          </cell>
+          <cell r="C124">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>2</v>
+          </cell>
+          <cell r="C125">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>5</v>
+          </cell>
+          <cell r="C126">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>10</v>
+          </cell>
+          <cell r="C127">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>1</v>
+          </cell>
+          <cell r="C128">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>11</v>
+          </cell>
+          <cell r="C129">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>7</v>
+          </cell>
+          <cell r="C130">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>2</v>
+          </cell>
+          <cell r="C131">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>5</v>
+          </cell>
+          <cell r="C132">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>2</v>
+          </cell>
+          <cell r="C133">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>7</v>
+          </cell>
+          <cell r="C134">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>4</v>
+          </cell>
+          <cell r="C135">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>6</v>
+          </cell>
+          <cell r="C136">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>2</v>
+          </cell>
+          <cell r="C137">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>3</v>
+          </cell>
+          <cell r="C138">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>7</v>
+          </cell>
+          <cell r="C139">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>6</v>
+          </cell>
+          <cell r="C140">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>6</v>
+          </cell>
+          <cell r="C141">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>6</v>
+          </cell>
+          <cell r="C142">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>4</v>
+          </cell>
+          <cell r="C143">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>3</v>
+          </cell>
+          <cell r="C144">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>2</v>
+          </cell>
+          <cell r="C145">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>6</v>
+          </cell>
+          <cell r="C146">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>5</v>
+          </cell>
+          <cell r="C147">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>4</v>
+          </cell>
+          <cell r="C148">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>5</v>
+          </cell>
+          <cell r="C149">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>5</v>
+          </cell>
+          <cell r="C150">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>6</v>
+          </cell>
+          <cell r="C151">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>4</v>
+          </cell>
+          <cell r="C152">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>3</v>
+          </cell>
+          <cell r="C153">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>6</v>
+          </cell>
+          <cell r="C154">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>3</v>
+          </cell>
+          <cell r="C155">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>8</v>
+          </cell>
+          <cell r="C156">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>2</v>
+          </cell>
+          <cell r="C157">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>2</v>
+          </cell>
+          <cell r="C158">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>4</v>
+          </cell>
+          <cell r="C159">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>1</v>
+          </cell>
+          <cell r="C160">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>2</v>
+          </cell>
+          <cell r="C161">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>2</v>
+          </cell>
+          <cell r="C162">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>2</v>
+          </cell>
+          <cell r="C163">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>3</v>
+          </cell>
+          <cell r="C164">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>2</v>
+          </cell>
+          <cell r="C165">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>7</v>
+          </cell>
+          <cell r="C166">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>4</v>
+          </cell>
+          <cell r="C167">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>2</v>
+          </cell>
+          <cell r="C168">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>3</v>
+          </cell>
+          <cell r="C169">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>5</v>
+          </cell>
+          <cell r="C170">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>1</v>
+          </cell>
+          <cell r="C171">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>6</v>
+          </cell>
+          <cell r="C172">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>2</v>
+          </cell>
+          <cell r="C173">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>2</v>
+          </cell>
+          <cell r="C174">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>7</v>
+          </cell>
+          <cell r="C175">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>3</v>
+          </cell>
+          <cell r="C176">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>2</v>
+          </cell>
+          <cell r="C177">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>1</v>
+          </cell>
+          <cell r="C178">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>12</v>
+          </cell>
+          <cell r="C179">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>9</v>
+          </cell>
+          <cell r="C180">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>5</v>
+          </cell>
+          <cell r="C181">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>2</v>
+          </cell>
+          <cell r="C182">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>1</v>
+          </cell>
+          <cell r="C183">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>8</v>
+          </cell>
+          <cell r="C184">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>1</v>
+          </cell>
+          <cell r="C185">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>2</v>
+          </cell>
+          <cell r="C186">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>3</v>
+          </cell>
+          <cell r="C187">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>3</v>
+          </cell>
+          <cell r="C188">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>7</v>
+          </cell>
+          <cell r="C189">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>3</v>
+          </cell>
+          <cell r="C190">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>4</v>
+          </cell>
+          <cell r="C191">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>5</v>
+          </cell>
+          <cell r="C192">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>2</v>
+          </cell>
+          <cell r="C193">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>7</v>
+          </cell>
+          <cell r="C194">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>2</v>
+          </cell>
+          <cell r="C195">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>3</v>
+          </cell>
+          <cell r="C196">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>3</v>
+          </cell>
+          <cell r="C197">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>1</v>
+          </cell>
+          <cell r="C198">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>5</v>
+          </cell>
+          <cell r="C199">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>6</v>
+          </cell>
+          <cell r="C200">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>6</v>
+          </cell>
+          <cell r="C201">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>7</v>
+          </cell>
+          <cell r="C202">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>4</v>
+          </cell>
+          <cell r="C203">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>5</v>
+          </cell>
+          <cell r="C204">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>1</v>
+          </cell>
+          <cell r="C205">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>6</v>
+          </cell>
+          <cell r="C206">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>4</v>
+          </cell>
+          <cell r="C207">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>7</v>
+          </cell>
+          <cell r="C208">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>4</v>
+          </cell>
+          <cell r="C209">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>2</v>
+          </cell>
+          <cell r="C210">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>1</v>
+          </cell>
+          <cell r="C211">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>3</v>
+          </cell>
+          <cell r="C212">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>11</v>
+          </cell>
+          <cell r="C213">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>8</v>
+          </cell>
+          <cell r="C214">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>3</v>
+          </cell>
+          <cell r="C215">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>5</v>
+          </cell>
+          <cell r="C216">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>3</v>
+          </cell>
+          <cell r="C217">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>4</v>
+          </cell>
+          <cell r="C218">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>8</v>
+          </cell>
+          <cell r="C219">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>2</v>
+          </cell>
+          <cell r="C220">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>6</v>
+          </cell>
+          <cell r="C221">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>5</v>
+          </cell>
+          <cell r="C222">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>4</v>
+          </cell>
+          <cell r="C223">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>2</v>
+          </cell>
+          <cell r="C224">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>2</v>
+          </cell>
+          <cell r="C225">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>3</v>
+          </cell>
+          <cell r="C226">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>5</v>
+          </cell>
+          <cell r="C227">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>7</v>
+          </cell>
+          <cell r="C228">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>6</v>
+          </cell>
+          <cell r="C229">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>2</v>
+          </cell>
+          <cell r="C230">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>5</v>
+          </cell>
+          <cell r="C231">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>5</v>
+          </cell>
+          <cell r="C232">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233">
+            <v>8</v>
+          </cell>
+          <cell r="C233">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234">
+            <v>3</v>
+          </cell>
+          <cell r="C234">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235">
+            <v>1</v>
+          </cell>
+          <cell r="C235">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236">
+            <v>3</v>
+          </cell>
+          <cell r="C236">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237">
+            <v>3</v>
+          </cell>
+          <cell r="C237">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238">
+            <v>2</v>
+          </cell>
+          <cell r="C238">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239">
+            <v>5</v>
+          </cell>
+          <cell r="C239">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240">
+            <v>9</v>
+          </cell>
+          <cell r="C240">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241">
+            <v>2</v>
+          </cell>
+          <cell r="C241">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242">
+            <v>4</v>
+          </cell>
+          <cell r="C242">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243">
+            <v>5</v>
+          </cell>
+          <cell r="C243">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244">
+            <v>2</v>
+          </cell>
+          <cell r="C244">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245">
+            <v>4</v>
+          </cell>
+          <cell r="C245">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246">
+            <v>4</v>
+          </cell>
+          <cell r="C246">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247">
+            <v>4</v>
+          </cell>
+          <cell r="C247">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248">
+            <v>7</v>
+          </cell>
+          <cell r="C248">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249">
+            <v>3</v>
+          </cell>
+          <cell r="C249">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250">
+            <v>1</v>
+          </cell>
+          <cell r="C250">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251">
+            <v>2</v>
+          </cell>
+          <cell r="C251">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252">
+            <v>2</v>
+          </cell>
+          <cell r="C252">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253">
+            <v>3</v>
+          </cell>
+          <cell r="C253">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254">
+            <v>4</v>
+          </cell>
+          <cell r="C254">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255">
+            <v>6</v>
+          </cell>
+          <cell r="C255">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256">
+            <v>2</v>
+          </cell>
+          <cell r="C256">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257">
+            <v>3</v>
+          </cell>
+          <cell r="C257">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258">
+            <v>6</v>
+          </cell>
+          <cell r="C258">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259">
+            <v>5</v>
+          </cell>
+          <cell r="C259">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260">
+            <v>3</v>
+          </cell>
+          <cell r="C260">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261">
+            <v>1</v>
+          </cell>
+          <cell r="C261">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262">
+            <v>6</v>
+          </cell>
+          <cell r="C262">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263">
+            <v>3</v>
+          </cell>
+          <cell r="C263">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264">
+            <v>2</v>
+          </cell>
+          <cell r="C264">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265">
+            <v>1</v>
+          </cell>
+          <cell r="C265">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266">
+            <v>4</v>
+          </cell>
+          <cell r="C266">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267">
+            <v>8</v>
+          </cell>
+          <cell r="C267">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268">
+            <v>5</v>
+          </cell>
+          <cell r="C268">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269">
+            <v>1</v>
+          </cell>
+          <cell r="C269">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270">
+            <v>4</v>
+          </cell>
+          <cell r="C270">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271">
+            <v>3</v>
+          </cell>
+          <cell r="C271">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272">
+            <v>7</v>
+          </cell>
+          <cell r="C272">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273">
+            <v>7</v>
+          </cell>
+          <cell r="C273">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274">
+            <v>6</v>
+          </cell>
+          <cell r="C274">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275">
+            <v>4</v>
+          </cell>
+          <cell r="C275">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276">
+            <v>2</v>
+          </cell>
+          <cell r="C276">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277">
+            <v>2</v>
+          </cell>
+          <cell r="C277">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278">
+            <v>3</v>
+          </cell>
+          <cell r="C278">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279">
+            <v>10</v>
+          </cell>
+          <cell r="C279">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280">
+            <v>2</v>
+          </cell>
+          <cell r="C280">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281">
+            <v>2</v>
+          </cell>
+          <cell r="C281">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282">
+            <v>5</v>
+          </cell>
+          <cell r="C282">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283">
+            <v>1</v>
+          </cell>
+          <cell r="C283">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284">
+            <v>4</v>
+          </cell>
+          <cell r="C284">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285">
+            <v>6</v>
+          </cell>
+          <cell r="C285">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286">
+            <v>4</v>
+          </cell>
+          <cell r="C286">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287">
+            <v>5</v>
+          </cell>
+          <cell r="C287">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288">
+            <v>2</v>
+          </cell>
+          <cell r="C288">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289">
+            <v>7</v>
+          </cell>
+          <cell r="C289">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290">
+            <v>2</v>
+          </cell>
+          <cell r="C290">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291">
+            <v>3</v>
+          </cell>
+          <cell r="C291">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292">
+            <v>1</v>
+          </cell>
+          <cell r="C292">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293">
+            <v>13</v>
+          </cell>
+          <cell r="C293">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294">
+            <v>4</v>
+          </cell>
+          <cell r="C294">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295">
+            <v>2</v>
+          </cell>
+          <cell r="C295">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296">
+            <v>8</v>
+          </cell>
+          <cell r="C296">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297">
+            <v>3</v>
+          </cell>
+          <cell r="C297">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298">
+            <v>4</v>
+          </cell>
+          <cell r="C298">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299">
+            <v>5</v>
+          </cell>
+          <cell r="C299">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300">
+            <v>4</v>
+          </cell>
+          <cell r="C300">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301">
+            <v>2</v>
+          </cell>
+          <cell r="C301">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302">
+            <v>3</v>
+          </cell>
+          <cell r="C302">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303">
+            <v>2</v>
+          </cell>
+          <cell r="C303">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304">
+            <v>2</v>
+          </cell>
+          <cell r="C304">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305">
+            <v>1</v>
+          </cell>
+          <cell r="C305">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306">
+            <v>7</v>
+          </cell>
+          <cell r="C306">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307">
+            <v>1</v>
+          </cell>
+          <cell r="C307">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308">
+            <v>3</v>
+          </cell>
+          <cell r="C308">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309">
+            <v>9</v>
+          </cell>
+          <cell r="C309">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310">
+            <v>1</v>
+          </cell>
+          <cell r="C310">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311">
+            <v>3</v>
+          </cell>
+          <cell r="C311">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312">
+            <v>4</v>
+          </cell>
+          <cell r="C312">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313">
+            <v>6</v>
+          </cell>
+          <cell r="C313">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314">
+            <v>2</v>
+          </cell>
+          <cell r="C314">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315">
+            <v>4</v>
+          </cell>
+          <cell r="C315">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316">
+            <v>1</v>
+          </cell>
+          <cell r="C316">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317">
+            <v>4</v>
+          </cell>
+          <cell r="C317">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318">
+            <v>3</v>
+          </cell>
+          <cell r="C318">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319">
+            <v>8</v>
+          </cell>
+          <cell r="C319">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320">
+            <v>1</v>
+          </cell>
+          <cell r="C320">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321">
+            <v>10</v>
+          </cell>
+          <cell r="C321">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322">
+            <v>1</v>
+          </cell>
+          <cell r="C322">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323">
+            <v>7</v>
+          </cell>
+          <cell r="C323">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324">
+            <v>3</v>
+          </cell>
+          <cell r="C324">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325">
+            <v>6</v>
+          </cell>
+          <cell r="C325">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326">
+            <v>12</v>
+          </cell>
+          <cell r="C326">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327">
+            <v>4</v>
+          </cell>
+          <cell r="C327">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328">
+            <v>5</v>
+          </cell>
+          <cell r="C328">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329">
+            <v>1</v>
+          </cell>
+          <cell r="C329">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330">
+            <v>7</v>
+          </cell>
+          <cell r="C330">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331">
+            <v>5</v>
+          </cell>
+          <cell r="C331">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332">
+            <v>2</v>
+          </cell>
+          <cell r="C332">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333">
+            <v>2</v>
+          </cell>
+          <cell r="C333">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334">
+            <v>2</v>
+          </cell>
+          <cell r="C334">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335">
+            <v>2</v>
+          </cell>
+          <cell r="C335">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336">
+            <v>6</v>
+          </cell>
+          <cell r="C336">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337">
+            <v>2</v>
+          </cell>
+          <cell r="C337">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338">
+            <v>1</v>
+          </cell>
+          <cell r="C338">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339">
+            <v>6</v>
+          </cell>
+          <cell r="C339">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340">
+            <v>4</v>
+          </cell>
+          <cell r="C340">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341">
+            <v>4</v>
+          </cell>
+          <cell r="C341">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342">
+            <v>2</v>
+          </cell>
+          <cell r="C342">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343">
+            <v>4</v>
+          </cell>
+          <cell r="C343">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344">
+            <v>1</v>
+          </cell>
+          <cell r="C344">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345">
+            <v>2</v>
+          </cell>
+          <cell r="C345">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346">
+            <v>8</v>
+          </cell>
+          <cell r="C346">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347">
+            <v>4</v>
+          </cell>
+          <cell r="C347">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348">
+            <v>6</v>
+          </cell>
+          <cell r="C348">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349">
+            <v>2</v>
+          </cell>
+          <cell r="C349">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350">
+            <v>5</v>
+          </cell>
+          <cell r="C350">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351">
+            <v>2</v>
+          </cell>
+          <cell r="C351">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352">
+            <v>8</v>
+          </cell>
+          <cell r="C352">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353">
+            <v>4</v>
+          </cell>
+          <cell r="C353">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354">
+            <v>3</v>
+          </cell>
+          <cell r="C354">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355">
+            <v>2</v>
+          </cell>
+          <cell r="C355">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356">
+            <v>4</v>
+          </cell>
+          <cell r="C356">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357">
+            <v>1</v>
+          </cell>
+          <cell r="C357">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358">
+            <v>5</v>
+          </cell>
+          <cell r="C358">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359">
+            <v>4</v>
+          </cell>
+          <cell r="C359">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360">
+            <v>4</v>
+          </cell>
+          <cell r="C360">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361">
+            <v>1</v>
+          </cell>
+          <cell r="C361">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362">
+            <v>8</v>
+          </cell>
+          <cell r="C362">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363">
+            <v>1</v>
+          </cell>
+          <cell r="C363">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364">
+            <v>8</v>
+          </cell>
+          <cell r="C364">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365">
+            <v>2</v>
+          </cell>
+          <cell r="C365">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>1</v>
+          </cell>
+          <cell r="C366">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>7</v>
+          </cell>
+          <cell r="C367">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>4</v>
+          </cell>
+          <cell r="C368">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>1</v>
+          </cell>
+          <cell r="C369">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>1</v>
+          </cell>
+          <cell r="C370">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371">
+            <v>7</v>
+          </cell>
+          <cell r="C371">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372">
+            <v>2</v>
+          </cell>
+          <cell r="C372">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>4</v>
+          </cell>
+          <cell r="C373">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>10</v>
+          </cell>
+          <cell r="C374">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>3</v>
+          </cell>
+          <cell r="C375">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>6</v>
+          </cell>
+          <cell r="C376">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377">
+            <v>9</v>
+          </cell>
+          <cell r="C377">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378">
+            <v>2</v>
+          </cell>
+          <cell r="C378">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379">
+            <v>1</v>
+          </cell>
+          <cell r="C379">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380">
+            <v>1</v>
+          </cell>
+          <cell r="C380">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381">
+            <v>2</v>
+          </cell>
+          <cell r="C381">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>2</v>
+          </cell>
+          <cell r="C382">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>8</v>
+          </cell>
+          <cell r="C383">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384">
+            <v>7</v>
+          </cell>
+          <cell r="C384">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385">
+            <v>8</v>
+          </cell>
+          <cell r="C385">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386">
+            <v>5</v>
+          </cell>
+          <cell r="C386">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387">
+            <v>2</v>
+          </cell>
+          <cell r="C387">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388">
+            <v>4</v>
+          </cell>
+          <cell r="C388">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389">
+            <v>1</v>
+          </cell>
+          <cell r="C389">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390">
+            <v>4</v>
+          </cell>
+          <cell r="C390">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391">
+            <v>1</v>
+          </cell>
+          <cell r="C391">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392">
+            <v>1</v>
+          </cell>
+          <cell r="C392">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393">
+            <v>5</v>
+          </cell>
+          <cell r="C393">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394">
+            <v>5</v>
+          </cell>
+          <cell r="C394">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395">
+            <v>9</v>
+          </cell>
+          <cell r="C395">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396">
+            <v>6</v>
+          </cell>
+          <cell r="C396">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397">
+            <v>9</v>
+          </cell>
+          <cell r="C397">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398">
+            <v>1</v>
+          </cell>
+          <cell r="C398">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399">
+            <v>2</v>
+          </cell>
+          <cell r="C399">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400">
+            <v>2</v>
+          </cell>
+          <cell r="C400">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401">
+            <v>7</v>
+          </cell>
+          <cell r="C401">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402">
+            <v>4</v>
+          </cell>
+          <cell r="C402">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403">
+            <v>5</v>
+          </cell>
+          <cell r="C403">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404">
+            <v>6</v>
+          </cell>
+          <cell r="C404">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>3</v>
+          </cell>
+          <cell r="C405">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406">
+            <v>7</v>
+          </cell>
+          <cell r="C406">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407">
+            <v>10</v>
+          </cell>
+          <cell r="C407">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408">
+            <v>10</v>
+          </cell>
+          <cell r="C408">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409">
+            <v>7</v>
+          </cell>
+          <cell r="C409">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410">
+            <v>5</v>
+          </cell>
+          <cell r="C410">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411">
+            <v>4</v>
+          </cell>
+          <cell r="C411">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412">
+            <v>2</v>
+          </cell>
+          <cell r="C412">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413">
+            <v>3</v>
+          </cell>
+          <cell r="C413">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414">
+            <v>2</v>
+          </cell>
+          <cell r="C414">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415">
+            <v>6</v>
+          </cell>
+          <cell r="C415">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416">
+            <v>2</v>
+          </cell>
+          <cell r="C416">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417">
+            <v>7</v>
+          </cell>
+          <cell r="C417">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418">
+            <v>2</v>
+          </cell>
+          <cell r="C418">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419">
+            <v>8</v>
+          </cell>
+          <cell r="C419">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420">
+            <v>4</v>
+          </cell>
+          <cell r="C420">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421">
+            <v>3</v>
+          </cell>
+          <cell r="C421">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422">
+            <v>7</v>
+          </cell>
+          <cell r="C422">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423">
+            <v>2</v>
+          </cell>
+          <cell r="C423">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424">
+            <v>7</v>
+          </cell>
+          <cell r="C424">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425">
+            <v>2</v>
+          </cell>
+          <cell r="C425">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>9</v>
+          </cell>
+          <cell r="C426">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>7</v>
+          </cell>
+          <cell r="C427">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428">
+            <v>5</v>
+          </cell>
+          <cell r="C428">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429">
+            <v>1</v>
+          </cell>
+          <cell r="C429">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430">
+            <v>7</v>
+          </cell>
+          <cell r="C430">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431">
+            <v>6</v>
+          </cell>
+          <cell r="C431">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432">
+            <v>8</v>
+          </cell>
+          <cell r="C432">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433">
+            <v>5</v>
+          </cell>
+          <cell r="C433">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434">
+            <v>2</v>
+          </cell>
+          <cell r="C434">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435">
+            <v>2</v>
+          </cell>
+          <cell r="C435">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436">
+            <v>6</v>
+          </cell>
+          <cell r="C436">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437">
+            <v>5</v>
+          </cell>
+          <cell r="C437">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438">
+            <v>4</v>
+          </cell>
+          <cell r="C438">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439">
+            <v>7</v>
+          </cell>
+          <cell r="C439">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440">
+            <v>3</v>
+          </cell>
+          <cell r="C440">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441">
+            <v>4</v>
+          </cell>
+          <cell r="C441">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>6</v>
+          </cell>
+          <cell r="C442">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>4</v>
+          </cell>
+          <cell r="C443">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444">
+            <v>5</v>
+          </cell>
+          <cell r="C444">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445">
+            <v>5</v>
+          </cell>
+          <cell r="C445">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446">
+            <v>7</v>
+          </cell>
+          <cell r="C446">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447">
+            <v>4</v>
+          </cell>
+          <cell r="C447">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448">
+            <v>3</v>
+          </cell>
+          <cell r="C448">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449">
+            <v>2</v>
+          </cell>
+          <cell r="C449">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450">
+            <v>4</v>
+          </cell>
+          <cell r="C450">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451">
+            <v>1</v>
+          </cell>
+          <cell r="C451">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452">
+            <v>5</v>
+          </cell>
+          <cell r="C452">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453">
+            <v>6</v>
+          </cell>
+          <cell r="C453">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454">
+            <v>6</v>
+          </cell>
+          <cell r="C454">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455">
+            <v>1</v>
+          </cell>
+          <cell r="C455">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456">
+            <v>2</v>
+          </cell>
+          <cell r="C456">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457">
+            <v>1</v>
+          </cell>
+          <cell r="C457">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458">
+            <v>1</v>
+          </cell>
+          <cell r="C458">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459">
+            <v>2</v>
+          </cell>
+          <cell r="C459">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460">
+            <v>8</v>
+          </cell>
+          <cell r="C460">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461">
+            <v>8</v>
+          </cell>
+          <cell r="C461">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462">
+            <v>6</v>
+          </cell>
+          <cell r="C462">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463">
+            <v>2</v>
+          </cell>
+          <cell r="C463">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="B464">
+            <v>3</v>
+          </cell>
+          <cell r="C464">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="B465">
+            <v>5</v>
+          </cell>
+          <cell r="C465">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="B466">
+            <v>1</v>
+          </cell>
+          <cell r="C466">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="B467">
+            <v>6</v>
+          </cell>
+          <cell r="C467">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="B468">
+            <v>4</v>
+          </cell>
+          <cell r="C468">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="B469">
+            <v>3</v>
+          </cell>
+          <cell r="C469">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="B470">
+            <v>2</v>
+          </cell>
+          <cell r="C470">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="B471">
+            <v>6</v>
+          </cell>
+          <cell r="C471">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="B472">
+            <v>2</v>
+          </cell>
+          <cell r="C472">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="B473">
+            <v>2</v>
+          </cell>
+          <cell r="C473">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="B474">
+            <v>1</v>
+          </cell>
+          <cell r="C474">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="B475">
+            <v>4</v>
+          </cell>
+          <cell r="C475">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="B476">
+            <v>6</v>
+          </cell>
+          <cell r="C476">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="B477">
+            <v>3</v>
+          </cell>
+          <cell r="C477">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="B478">
+            <v>1</v>
+          </cell>
+          <cell r="C478">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="B479">
+            <v>6</v>
+          </cell>
+          <cell r="C479">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="B480">
+            <v>5</v>
+          </cell>
+          <cell r="C480">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="B481">
+            <v>7</v>
+          </cell>
+          <cell r="C481">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="B482">
+            <v>1</v>
+          </cell>
+          <cell r="C482">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="B483">
+            <v>6</v>
+          </cell>
+          <cell r="C483">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="B484">
+            <v>5</v>
+          </cell>
+          <cell r="C484">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="B485">
+            <v>2</v>
+          </cell>
+          <cell r="C485">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="B486">
+            <v>8</v>
+          </cell>
+          <cell r="C486">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="B487">
+            <v>7</v>
+          </cell>
+          <cell r="C487">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="B488">
+            <v>5</v>
+          </cell>
+          <cell r="C488">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="B489">
+            <v>2</v>
+          </cell>
+          <cell r="C489">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="B490">
+            <v>2</v>
+          </cell>
+          <cell r="C490">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="B491">
+            <v>9</v>
+          </cell>
+          <cell r="C491">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="B492">
+            <v>9</v>
+          </cell>
+          <cell r="C492">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="B493">
+            <v>3</v>
+          </cell>
+          <cell r="C493">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="B494">
+            <v>1</v>
+          </cell>
+          <cell r="C494">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="B495">
+            <v>6</v>
+          </cell>
+          <cell r="C495">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="B496">
+            <v>7</v>
+          </cell>
+          <cell r="C496">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="B497">
+            <v>4</v>
+          </cell>
+          <cell r="C497">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="B498">
+            <v>8</v>
+          </cell>
+          <cell r="C498">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="B499">
+            <v>2</v>
+          </cell>
+          <cell r="C499">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="B500">
+            <v>3</v>
+          </cell>
+          <cell r="C500">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="B501">
+            <v>9</v>
+          </cell>
+          <cell r="C501">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="B502">
+            <v>5</v>
+          </cell>
+          <cell r="C502">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="B503">
+            <v>1</v>
+          </cell>
+          <cell r="C503">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="B504">
+            <v>7</v>
+          </cell>
+          <cell r="C504">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="B505">
+            <v>5</v>
+          </cell>
+          <cell r="C505">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="B506">
+            <v>2</v>
+          </cell>
+          <cell r="C506">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="B507">
+            <v>4</v>
+          </cell>
+          <cell r="C507">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="B508">
+            <v>1</v>
+          </cell>
+          <cell r="C508">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="B509">
+            <v>1</v>
+          </cell>
+          <cell r="C509">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="B510">
+            <v>1</v>
+          </cell>
+          <cell r="C510">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511">
+            <v>3</v>
+          </cell>
+          <cell r="C511">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="B512">
+            <v>4</v>
+          </cell>
+          <cell r="C512">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="B513">
+            <v>2</v>
+          </cell>
+          <cell r="C513">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="B514">
+            <v>7</v>
+          </cell>
+          <cell r="C514">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="B515">
+            <v>5</v>
+          </cell>
+          <cell r="C515">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516">
+            <v>2</v>
+          </cell>
+          <cell r="C516">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="B517">
+            <v>1</v>
+          </cell>
+          <cell r="C517">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="B518">
+            <v>8</v>
+          </cell>
+          <cell r="C518">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="B519">
+            <v>10</v>
+          </cell>
+          <cell r="C519">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="B520">
+            <v>6</v>
+          </cell>
+          <cell r="C520">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="B521">
+            <v>1</v>
+          </cell>
+          <cell r="C521">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="B522">
+            <v>3</v>
+          </cell>
+          <cell r="C522">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="B523">
+            <v>6</v>
+          </cell>
+          <cell r="C523">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="B524">
+            <v>6</v>
+          </cell>
+          <cell r="C524">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="B525">
+            <v>6</v>
+          </cell>
+          <cell r="C525">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="B526">
+            <v>6</v>
+          </cell>
+          <cell r="C526">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="B527">
+            <v>7</v>
+          </cell>
+          <cell r="C527">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="B528">
+            <v>2</v>
+          </cell>
+          <cell r="C528">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="B529">
+            <v>6</v>
+          </cell>
+          <cell r="C529">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="B530">
+            <v>1</v>
+          </cell>
+          <cell r="C530">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="B531">
+            <v>2</v>
+          </cell>
+          <cell r="C531">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="B532">
+            <v>7</v>
+          </cell>
+          <cell r="C532">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="B533">
+            <v>5</v>
+          </cell>
+          <cell r="C533">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="B534">
+            <v>4</v>
+          </cell>
+          <cell r="C534">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="B535">
+            <v>8</v>
+          </cell>
+          <cell r="C535">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="B536">
+            <v>8</v>
+          </cell>
+          <cell r="C536">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="B537">
+            <v>1</v>
+          </cell>
+          <cell r="C537">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="B538">
+            <v>5</v>
+          </cell>
+          <cell r="C538">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="B539">
+            <v>1</v>
+          </cell>
+          <cell r="C539">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="B540">
+            <v>11</v>
+          </cell>
+          <cell r="C540">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="B541">
+            <v>1</v>
+          </cell>
+          <cell r="C541">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="B542">
+            <v>3</v>
+          </cell>
+          <cell r="C542">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="B543">
+            <v>4</v>
+          </cell>
+          <cell r="C543">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="B544">
+            <v>3</v>
+          </cell>
+          <cell r="C544">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="B545">
+            <v>2</v>
+          </cell>
+          <cell r="C545">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="B546">
+            <v>2</v>
+          </cell>
+          <cell r="C546">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="B547">
+            <v>10</v>
+          </cell>
+          <cell r="C547">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="B548">
+            <v>6</v>
+          </cell>
+          <cell r="C548">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="B549">
+            <v>7</v>
+          </cell>
+          <cell r="C549">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="B550">
+            <v>5</v>
+          </cell>
+          <cell r="C550">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="B551">
+            <v>5</v>
+          </cell>
+          <cell r="C551">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="B552">
+            <v>3</v>
+          </cell>
+          <cell r="C552">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="B553">
+            <v>5</v>
+          </cell>
+          <cell r="C553">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="B554">
+            <v>5</v>
+          </cell>
+          <cell r="C554">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="B555">
+            <v>1</v>
+          </cell>
+          <cell r="C555">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="B556">
+            <v>3</v>
+          </cell>
+          <cell r="C556">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="B557">
+            <v>2</v>
+          </cell>
+          <cell r="C557">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="B558">
+            <v>7</v>
+          </cell>
+          <cell r="C558">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="B559">
+            <v>5</v>
+          </cell>
+          <cell r="C559">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="B560">
+            <v>4</v>
+          </cell>
+          <cell r="C560">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="B561">
+            <v>4</v>
+          </cell>
+          <cell r="C561">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="B562">
+            <v>3</v>
+          </cell>
+          <cell r="C562">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BE4138-C2AF-4096-8D7E-A37368387D9A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,482 +6072,319 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>770</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("[",A2,",",B2,"]")</f>
-        <v>[750,770]</v>
+        <v>[1,2]</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A2,[1]final_student_random_gpa_pair!$C:$C,B2)</f>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>627</v>
       </c>
       <c r="F2" s="1">
-        <f>(D2/$D$23)-(E2/$E$23)</f>
-        <v>4.1692217951210669E-4</v>
+        <f>(D2/$D$15)-(E2/$E$15)</f>
+        <v>-1.1818261752316095E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>770</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>780</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C22" si="0">_xlfn.CONCAT("[",A3,",",B3,"]")</f>
-        <v>[770,780]</v>
+        <f t="shared" ref="C3:C14" si="0">_xlfn.CONCAT("[",A3,",",B3,"]")</f>
+        <v>[2,3]</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A3,[1]final_student_random_gpa_pair!$C:$C,B3)</f>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F22" si="1">(D3/$D$23)-(E3/$E$23)</f>
-        <v>-8.4599679923420944E-3</v>
+        <f>(D3/$D$15)-(E3/$E$15)</f>
+        <v>4.9187469525111299E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>780</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>[780,800]</v>
+        <v>[3,4]</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A4,[1]final_student_random_gpa_pair!$C:$C,B4)</f>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>525</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8922807699786092E-3</v>
+        <f>(D4/$D$15)-(E4/$E$15)</f>
+        <v>1.115081173113347E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>810</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>[800,810]</v>
+        <v>[4,5]</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A5,[1]final_student_random_gpa_pair!$C:$C,B5)</f>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>129</v>
+        <v>487</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.0142613559879748E-2</v>
+        <f>(D5/$D$15)-(E5/$E$15)</f>
+        <v>-5.4608336064416313E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>810</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>830</v>
+        <v>6</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>[810,830]</v>
+        <v>[5,6]</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A6,[1]final_student_random_gpa_pair!$C:$C,B6)</f>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0650024678801651E-3</v>
+        <f>(D6/$D$15)-(E6/$E$15)</f>
+        <v>6.1535961034774045E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>830</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>840</v>
+        <v>7</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>[830,840]</v>
+        <v>[6,7]</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A7,[1]final_student_random_gpa_pair!$C:$C,B7)</f>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.9580385587579834E-2</v>
+        <f>(D7/$D$15)-(E7/$E$15)</f>
+        <v>1.8971034534210479E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>840</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>860</v>
+        <v>8</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>[840,860]</v>
+        <v>[7,8]</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A8,[1]final_student_random_gpa_pair!$C:$C,B8)</f>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.2117441182189387E-2</v>
+        <f>(D8/$D$15)-(E8/$E$15)</f>
+        <v>-1.006503974058709E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>860</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>870</v>
+        <v>9</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>[860,870]</v>
+        <v>[8,9]</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A9,[1]final_student_random_gpa_pair!$C:$C,B9)</f>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>-7.1549828744073285E-3</v>
+        <f>(D9/$D$15)-(E9/$E$15)</f>
+        <v>-2.1743416757924801E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>870</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>890</v>
+        <v>10</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>[870,890]</v>
+        <v>[9,10]</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A10,[1]final_student_random_gpa_pair!$C:$C,B10)</f>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>5.9546957028971392E-3</v>
+        <f>(D10/$D$15)-(E10/$E$15)</f>
+        <v>-7.1048123013303724E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>890</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>[890,900]</v>
+        <v>[10,11]</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A11,[1]final_student_random_gpa_pair!$C:$C,B11)</f>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.9443904335990775E-3</v>
+        <f>(D11/$D$15)-(E11/$E$15)</f>
+        <v>8.4596958772638169E-4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>920</v>
+        <v>12</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>[900,920]</v>
+        <v>[11,12]</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A12,[1]final_student_random_gpa_pair!$C:$C,B12)</f>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8482926756308041E-2</v>
+        <f>(D12/$D$15)-(E12/$E$15)</f>
+        <v>-3.3718882307645177E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>920</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>930</v>
+        <v>13</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>[920,930]</v>
+        <v>[12,13]</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A13,[1]final_student_random_gpa_pair!$C:$C,B13)</f>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.3535948787747359E-2</v>
+        <f>(D13/$D$15)-(E13/$E$15)</f>
+        <v>3.2639771494954789E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>930</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>950</v>
+        <v>14</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>[930,950]</v>
+        <v>[13,14]</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <f>COUNTIFS([1]final_student_random_gpa_pair!$B:$B,A14,[1]final_student_random_gpa_pair!$C:$C,B14)</f>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4711856294590188E-3</v>
+        <f>(D14/$D$15)-(E14/$E$15)</f>
+        <v>3.8634831565456532E-5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>950</v>
-      </c>
-      <c r="B15">
-        <v>960</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>[950,960]</v>
-      </c>
       <c r="D15">
-        <v>41</v>
+        <f>SUM(D2:D14)</f>
+        <v>561</v>
       </c>
       <c r="E15">
-        <v>292</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.142568689331284E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>960</v>
-      </c>
-      <c r="B16">
-        <v>980</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>[960,980]</v>
-      </c>
-      <c r="D16">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>254</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4926935790245136E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>980</v>
-      </c>
-      <c r="B17">
-        <v>990</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>[980,990]</v>
-      </c>
-      <c r="D17">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <v>254</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.5648603778100185E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>990</v>
-      </c>
-      <c r="B18">
-        <v>1010</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>[990,1010]</v>
-      </c>
-      <c r="D18">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>194</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.073527872089023E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1010</v>
-      </c>
-      <c r="B19">
-        <v>1020</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>[1010,1020]</v>
-      </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>153</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4045528649845197E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1020</v>
-      </c>
-      <c r="B20">
-        <v>1040</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>[1020,1040]</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>106</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3820128928042595E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1040</v>
-      </c>
-      <c r="B21">
-        <v>1050</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>[1040,1050]</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>96</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>9.2246369224786504E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1050</v>
-      </c>
-      <c r="B22">
-        <v>1070</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>[1050,1070]</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3323561525000377E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>SUM(D2:D22)</f>
-        <v>556</v>
-      </c>
-      <c r="E23">
-        <f>SUM(E2:E22)</f>
-        <v>3848</v>
+        <f>SUM(E2:E14)</f>
+        <v>4014</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="F2:F22">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F2:F14">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
